--- a/jewels/egelge/эгэлгеЭг_19004-07-2022.xlsx
+++ b/jewels/egelge/эгэлгеЭг_19004-07-2022.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$191</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="496">
   <si>
     <t>h1</t>
   </si>
@@ -895,396 +898,30 @@
     <t>керамика, серебро 925 пробы</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>Средний вес – 3,3 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 5,4 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 5,7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 19,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 16 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 19,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 10,2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 10,3 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 15,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 22,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 23 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 17,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 19,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 28,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 23,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 11,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 11 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 8,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 14,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 9,7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 11,4 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 7,7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 8,9 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 1,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 1,4 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 2,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 4,4 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 4,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 7,3 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 12,2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 14 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 9,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 24 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 27 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 25 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 12,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 21 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 15 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 4,2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 4,7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 4,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 3,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 3,9 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 3,7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 4,9 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 2,9 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 5,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 62 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 1,3 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 1,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 27,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 8,2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 75 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 5,2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 5,1гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 8,3 гр</t>
-  </si>
-  <si>
-    <t>Средний вес - 4,3 гр.</t>
-  </si>
-  <si>
-    <t>Средний вес – 9,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 8,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 22 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 4 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 13,4 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 9 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 13,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 2,4 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 14,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 1,9 гр</t>
-  </si>
-  <si>
     <t>Вставка – Фианиты</t>
   </si>
   <si>
-    <t>Средний вес – 2,7 гр</t>
-  </si>
-  <si>
     <t>Вставка – Фианиты, эмаль</t>
   </si>
   <si>
     <t>Вставка – Корунд синт</t>
   </si>
   <si>
-    <t>Средний вес – 7,4 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 9.7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 13 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 12,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 10,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 8,6 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 7,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 6,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 11.2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 10,9 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 9,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 8.2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 11,3 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 10,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 5,5 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 6,2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 7,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 4,6 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 6,4 гр</t>
-  </si>
-  <si>
     <t>Вставка – 1 Фиан кр 1,00 б/цв</t>
   </si>
   <si>
-    <t>Средний вес – 2,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 3,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 1,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 20,2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 1,7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 2,3 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 18 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 33 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 67 гр</t>
-  </si>
-  <si>
     <t>Вставка – 1 Бр Кр 17 0,014Ct 2/3А</t>
   </si>
   <si>
     <t>Вставка – 1 БР кр 17 2/3А Общая масса 6,52</t>
   </si>
   <si>
-    <t>Средний вес – 5,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 185 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 420 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 306 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 225 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 2,2 гр</t>
-  </si>
-  <si>
     <t>Вставка – Гранат</t>
   </si>
   <si>
-    <t>Средний вес – 0,6 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 1,2 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 0,9 гр</t>
-  </si>
-  <si>
     <t>Вставка – 1 Бр Кр 17 0,006Ct 2/3</t>
   </si>
   <si>
-    <t>Средний вес – 2,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 20,7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 16,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 16,3 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 17 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 17,7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 18,6 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 3,4 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 8,1 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 8,7 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 7,9 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 7,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 9,3 гр</t>
-  </si>
-  <si>
     <t>Вставка – 2 Бр кр17 0,012 2/3А</t>
   </si>
   <si>
@@ -1297,18 +934,6 @@
     <t>Вставка – Фианит</t>
   </si>
   <si>
-    <t>Средний вес – 4,8 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 5,6 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 6,6 гр</t>
-  </si>
-  <si>
-    <t>Средний вес – 12,7 гр</t>
-  </si>
-  <si>
     <t>https://egelge.com/catalog/serebryanoe-kolco-565/</t>
   </si>
   <si>
@@ -1877,13 +1502,19 @@
   </si>
   <si>
     <t>https://egelge.com/catalog/serebryanyy-brelok-370/</t>
+  </si>
+  <si>
+    <t>цена за грамм</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1906,6 +1537,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1915,7 +1553,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1938,24 +1576,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1963,9 +1621,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2003,7 +1661,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2073,7 +1731,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2247,13 +1905,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L168" sqref="L168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2285,16 +1953,19 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2322,17 +1993,18 @@
       <c r="K2" t="s">
         <v>291</v>
       </c>
-      <c r="L2" t="s">
-        <v>293</v>
-      </c>
-      <c r="M2" t="s">
-        <v>363</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="L2">
+        <v>1.9</v>
+      </c>
+      <c r="M2" s="5">
+        <f>E2/L2</f>
+        <v>387.89473684210526</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2360,17 +2032,21 @@
       <c r="K3" t="s">
         <v>291</v>
       </c>
-      <c r="L3" t="s">
-        <v>294</v>
-      </c>
-      <c r="M3" t="s">
-        <v>364</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="L3">
+        <v>3.3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">E3/L3</f>
+        <v>331.21212121212125</v>
+      </c>
+      <c r="N3" t="s">
+        <v>293</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2398,17 +2074,18 @@
       <c r="K4" t="s">
         <v>291</v>
       </c>
-      <c r="L4" t="s">
-        <v>293</v>
-      </c>
-      <c r="M4" t="s">
-        <v>365</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="L4">
+        <v>2.7</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>422.96296296296293</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2439,17 +2116,21 @@
       <c r="K5" t="s">
         <v>291</v>
       </c>
-      <c r="L5" t="s">
-        <v>295</v>
-      </c>
-      <c r="M5" t="s">
-        <v>364</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="L5">
+        <v>5.4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>576.2962962962963</v>
+      </c>
+      <c r="N5" t="s">
+        <v>293</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2480,17 +2161,21 @@
       <c r="K6" t="s">
         <v>291</v>
       </c>
-      <c r="L6" t="s">
-        <v>296</v>
-      </c>
-      <c r="M6" t="s">
-        <v>366</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="L6">
+        <v>5.7</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>741.92982456140351</v>
+      </c>
+      <c r="N6" t="s">
+        <v>294</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2521,17 +2206,21 @@
       <c r="K7" t="s">
         <v>291</v>
       </c>
-      <c r="L7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M7" t="s">
-        <v>367</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="L7">
+        <v>19.8</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>397.12121212121212</v>
+      </c>
+      <c r="N7" t="s">
+        <v>295</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2562,17 +2251,18 @@
       <c r="K8" t="s">
         <v>291</v>
       </c>
-      <c r="L8" t="s">
-        <v>293</v>
-      </c>
-      <c r="M8" t="s">
-        <v>313</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="L8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>344.94845360824746</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2603,17 +2293,18 @@
       <c r="K9" t="s">
         <v>291</v>
       </c>
-      <c r="L9" t="s">
-        <v>293</v>
-      </c>
-      <c r="M9" t="s">
-        <v>368</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="L9">
+        <v>7.4</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>324.86486486486484</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2644,17 +2335,18 @@
       <c r="K10" t="s">
         <v>291</v>
       </c>
-      <c r="L10" t="s">
-        <v>293</v>
-      </c>
-      <c r="M10" t="s">
-        <v>369</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="L10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>339.38144329896909</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2685,17 +2377,21 @@
       <c r="K11" t="s">
         <v>291</v>
       </c>
-      <c r="L11" t="s">
-        <v>298</v>
-      </c>
-      <c r="M11" t="s">
-        <v>364</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>359.75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>293</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2726,17 +2422,21 @@
       <c r="K12" t="s">
         <v>291</v>
       </c>
-      <c r="L12" t="s">
-        <v>299</v>
-      </c>
-      <c r="M12" t="s">
-        <v>364</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="L12">
+        <v>19.5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>352.5128205128205</v>
+      </c>
+      <c r="N12" t="s">
+        <v>293</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2767,17 +2467,21 @@
       <c r="K13" t="s">
         <v>291</v>
       </c>
-      <c r="L13" t="s">
-        <v>300</v>
-      </c>
-      <c r="M13" t="s">
-        <v>364</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="L13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>371.86274509803923</v>
+      </c>
+      <c r="N13" t="s">
+        <v>293</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2808,17 +2512,21 @@
       <c r="K14" t="s">
         <v>291</v>
       </c>
-      <c r="L14" t="s">
-        <v>301</v>
-      </c>
-      <c r="M14" t="s">
-        <v>364</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="L14">
+        <v>10.3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>401.45631067961165</v>
+      </c>
+      <c r="N14" t="s">
+        <v>293</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2849,17 +2557,18 @@
       <c r="K15" t="s">
         <v>291</v>
       </c>
-      <c r="L15" t="s">
-        <v>293</v>
-      </c>
-      <c r="M15" t="s">
-        <v>370</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="0"/>
+        <v>324.92307692307691</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2890,17 +2599,21 @@
       <c r="K16" t="s">
         <v>291</v>
       </c>
-      <c r="L16" t="s">
-        <v>302</v>
-      </c>
-      <c r="M16" t="s">
-        <v>364</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="L16">
+        <v>15.5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>358.64516129032256</v>
+      </c>
+      <c r="N16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2931,17 +2644,21 @@
       <c r="K17" t="s">
         <v>291</v>
       </c>
-      <c r="L17" t="s">
-        <v>303</v>
-      </c>
-      <c r="M17" t="s">
-        <v>364</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="L17">
+        <v>22.8</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>337.80701754385962</v>
+      </c>
+      <c r="N17" t="s">
+        <v>293</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2972,17 +2689,18 @@
       <c r="K18" t="s">
         <v>291</v>
       </c>
-      <c r="L18" t="s">
-        <v>293</v>
-      </c>
-      <c r="M18" t="s">
-        <v>371</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="L18">
+        <v>12.8</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="0"/>
+        <v>322.578125</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3013,17 +2731,21 @@
       <c r="K19" t="s">
         <v>291</v>
       </c>
-      <c r="L19" t="s">
-        <v>297</v>
-      </c>
-      <c r="M19" t="s">
-        <v>364</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="L19">
+        <v>19.8</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>354.39393939393938</v>
+      </c>
+      <c r="N19" t="s">
+        <v>293</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3054,17 +2776,18 @@
       <c r="K20" t="s">
         <v>291</v>
       </c>
-      <c r="L20" t="s">
-        <v>293</v>
-      </c>
-      <c r="M20" t="s">
-        <v>372</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="L20">
+        <v>10.5</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="0"/>
+        <v>328.76190476190476</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3095,17 +2818,18 @@
       <c r="K21" t="s">
         <v>291</v>
       </c>
-      <c r="L21" t="s">
-        <v>293</v>
-      </c>
-      <c r="M21" t="s">
-        <v>325</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="L21">
+        <v>9.5</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="0"/>
+        <v>321.05263157894734</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3136,17 +2860,18 @@
       <c r="K22" t="s">
         <v>291</v>
       </c>
-      <c r="L22" t="s">
-        <v>293</v>
-      </c>
-      <c r="M22" t="s">
-        <v>373</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="L22">
+        <v>8.6</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="0"/>
+        <v>334.6511627906977</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3177,17 +2902,21 @@
       <c r="K23" t="s">
         <v>291</v>
       </c>
-      <c r="L23" t="s">
-        <v>304</v>
-      </c>
-      <c r="M23" t="s">
-        <v>364</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>359.26086956521738</v>
+      </c>
+      <c r="N23" t="s">
+        <v>293</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3218,17 +2947,21 @@
       <c r="K24" t="s">
         <v>291</v>
       </c>
-      <c r="L24" t="s">
-        <v>305</v>
-      </c>
-      <c r="M24" t="s">
-        <v>364</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="L24">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>340.81871345029236</v>
+      </c>
+      <c r="N24" t="s">
+        <v>293</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3259,17 +2992,21 @@
       <c r="K25" t="s">
         <v>291</v>
       </c>
-      <c r="L25" t="s">
-        <v>306</v>
-      </c>
-      <c r="M25" t="s">
-        <v>364</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="L25">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>324.08376963350781</v>
+      </c>
+      <c r="N25" t="s">
+        <v>293</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3300,17 +3037,18 @@
       <c r="K26" t="s">
         <v>291</v>
       </c>
-      <c r="L26" t="s">
-        <v>293</v>
-      </c>
-      <c r="M26" t="s">
-        <v>298</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="L26">
+        <v>16</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="0"/>
+        <v>328.4375</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3341,17 +3079,21 @@
       <c r="K27" t="s">
         <v>291</v>
       </c>
-      <c r="L27" t="s">
-        <v>307</v>
-      </c>
-      <c r="M27" t="s">
-        <v>364</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="L27">
+        <v>28.5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>348.56140350877195</v>
+      </c>
+      <c r="N27" t="s">
+        <v>293</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3382,17 +3124,18 @@
       <c r="K28" t="s">
         <v>291</v>
       </c>
-      <c r="L28" t="s">
-        <v>293</v>
-      </c>
-      <c r="M28" t="s">
-        <v>374</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="L28">
+        <v>7.5</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="0"/>
+        <v>317.06666666666666</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3423,17 +3166,18 @@
       <c r="K29" t="s">
         <v>291</v>
       </c>
-      <c r="L29" t="s">
-        <v>293</v>
-      </c>
-      <c r="M29" t="s">
-        <v>375</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="L29">
+        <v>6.8</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="0"/>
+        <v>327.79411764705884</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3464,17 +3208,18 @@
       <c r="K30" t="s">
         <v>291</v>
       </c>
-      <c r="L30" t="s">
-        <v>293</v>
-      </c>
-      <c r="M30" t="s">
-        <v>376</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="L30">
+        <v>11.2</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="0"/>
+        <v>332.5</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3505,17 +3250,21 @@
       <c r="K31" t="s">
         <v>291</v>
       </c>
-      <c r="L31" t="s">
-        <v>308</v>
-      </c>
-      <c r="M31" t="s">
-        <v>364</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="L31">
+        <v>23.8</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>328.99159663865544</v>
+      </c>
+      <c r="N31" t="s">
+        <v>293</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3546,17 +3295,18 @@
       <c r="K32" t="s">
         <v>291</v>
       </c>
-      <c r="L32" t="s">
-        <v>293</v>
-      </c>
-      <c r="M32" t="s">
-        <v>377</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="L32">
+        <v>10.9</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="0"/>
+        <v>305.59633027522932</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3587,17 +3337,21 @@
       <c r="K33" t="s">
         <v>291</v>
       </c>
-      <c r="L33" t="s">
-        <v>309</v>
-      </c>
-      <c r="M33" t="s">
-        <v>364</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="L33">
+        <v>11.8</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>331.18644067796606</v>
+      </c>
+      <c r="N33" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3628,17 +3382,21 @@
       <c r="K34" t="s">
         <v>291</v>
       </c>
-      <c r="L34" t="s">
-        <v>310</v>
-      </c>
-      <c r="M34" t="s">
-        <v>364</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="L34">
+        <v>11</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3669,17 +3427,21 @@
       <c r="K35" t="s">
         <v>291</v>
       </c>
-      <c r="L35" t="s">
-        <v>311</v>
-      </c>
-      <c r="M35" t="s">
-        <v>364</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="L35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>371.70454545454544</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3710,17 +3472,21 @@
       <c r="K36" t="s">
         <v>291</v>
       </c>
-      <c r="L36" t="s">
-        <v>312</v>
-      </c>
-      <c r="M36" t="s">
-        <v>364</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="L36">
+        <v>14.8</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>339.45945945945942</v>
+      </c>
+      <c r="N36" t="s">
+        <v>293</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3751,17 +3517,18 @@
       <c r="K37" t="s">
         <v>291</v>
       </c>
-      <c r="L37" t="s">
-        <v>293</v>
-      </c>
-      <c r="M37" t="s">
-        <v>378</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="L37">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" si="0"/>
+        <v>318.67346938775506</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3792,17 +3559,21 @@
       <c r="K38" t="s">
         <v>291</v>
       </c>
-      <c r="L38" t="s">
-        <v>313</v>
-      </c>
-      <c r="M38" t="s">
-        <v>364</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="L38">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>335.67010309278351</v>
+      </c>
+      <c r="N38" t="s">
+        <v>293</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3833,17 +3604,21 @@
       <c r="K39" t="s">
         <v>291</v>
       </c>
-      <c r="L39" t="s">
-        <v>314</v>
-      </c>
-      <c r="M39" t="s">
-        <v>364</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="L39">
+        <v>11.4</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>372.01754385964909</v>
+      </c>
+      <c r="N39" t="s">
+        <v>293</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3874,17 +3649,18 @@
       <c r="K40" t="s">
         <v>291</v>
       </c>
-      <c r="L40" t="s">
-        <v>293</v>
-      </c>
-      <c r="M40" t="s">
-        <v>379</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="L40">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="0"/>
+        <v>323.53658536585368</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3912,17 +3688,18 @@
       <c r="K41" t="s">
         <v>291</v>
       </c>
-      <c r="L41" t="s">
-        <v>293</v>
-      </c>
-      <c r="M41" t="s">
-        <v>380</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="L41">
+        <v>11.3</v>
+      </c>
+      <c r="M41" s="5">
+        <f t="shared" si="0"/>
+        <v>408.84955752212386</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3950,17 +3727,21 @@
       <c r="K42" t="s">
         <v>291</v>
       </c>
-      <c r="L42" t="s">
-        <v>315</v>
-      </c>
-      <c r="M42" t="s">
-        <v>366</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="L42">
+        <v>7.7</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3988,17 +3769,18 @@
       <c r="K43" t="s">
         <v>291</v>
       </c>
-      <c r="L43" t="s">
-        <v>293</v>
-      </c>
-      <c r="M43" t="s">
-        <v>381</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="L43">
+        <v>10.8</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="0"/>
+        <v>505.55555555555554</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4026,17 +3808,18 @@
       <c r="K44" t="s">
         <v>291</v>
       </c>
-      <c r="L44" t="s">
-        <v>293</v>
-      </c>
-      <c r="M44" t="s">
-        <v>382</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="L44">
+        <v>5.5</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="0"/>
+        <v>331.27272727272725</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4064,17 +3847,18 @@
       <c r="K45" t="s">
         <v>291</v>
       </c>
-      <c r="L45" t="s">
-        <v>293</v>
-      </c>
-      <c r="M45" t="s">
-        <v>383</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="L45">
+        <v>6.2</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="0"/>
+        <v>333.06451612903226</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4102,17 +3886,18 @@
       <c r="K46" t="s">
         <v>291</v>
       </c>
-      <c r="L46" t="s">
-        <v>293</v>
-      </c>
-      <c r="M46" t="s">
-        <v>384</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="L46">
+        <v>7.1</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="0"/>
+        <v>312.95774647887328</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4140,17 +3925,18 @@
       <c r="K47" t="s">
         <v>291</v>
       </c>
-      <c r="L47" t="s">
-        <v>293</v>
-      </c>
-      <c r="M47" t="s">
-        <v>322</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="L47">
+        <v>7.3</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="0"/>
+        <v>357.53424657534248</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4178,17 +3964,18 @@
       <c r="K48" t="s">
         <v>291</v>
       </c>
-      <c r="L48" t="s">
-        <v>293</v>
-      </c>
-      <c r="M48" t="s">
-        <v>385</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="L48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M48" s="5">
+        <f t="shared" si="0"/>
+        <v>327.60869565217394</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4216,17 +4003,18 @@
       <c r="K49" t="s">
         <v>291</v>
       </c>
-      <c r="L49" t="s">
-        <v>293</v>
-      </c>
-      <c r="M49" t="s">
-        <v>374</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="L49">
+        <v>7.5</v>
+      </c>
+      <c r="M49" s="5">
+        <f t="shared" si="0"/>
+        <v>318.93333333333334</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4254,17 +4042,18 @@
       <c r="K50" t="s">
         <v>291</v>
       </c>
-      <c r="L50" t="s">
-        <v>293</v>
-      </c>
-      <c r="M50" t="s">
-        <v>337</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="L50">
+        <v>3.7</v>
+      </c>
+      <c r="M50" s="5">
+        <f t="shared" si="0"/>
+        <v>341.08108108108104</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4292,17 +4081,18 @@
       <c r="K51" t="s">
         <v>291</v>
       </c>
-      <c r="L51" t="s">
-        <v>293</v>
-      </c>
-      <c r="M51" t="s">
-        <v>322</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="L51">
+        <v>7.3</v>
+      </c>
+      <c r="M51" s="5">
+        <f t="shared" si="0"/>
+        <v>459.17808219178085</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4330,17 +4120,18 @@
       <c r="K52" t="s">
         <v>291</v>
       </c>
-      <c r="L52" t="s">
-        <v>293</v>
-      </c>
-      <c r="M52" t="s">
-        <v>386</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="L52">
+        <v>6.4</v>
+      </c>
+      <c r="M52" s="5">
+        <f t="shared" si="0"/>
+        <v>473.75</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4368,17 +4159,21 @@
       <c r="K53" t="s">
         <v>291</v>
       </c>
-      <c r="L53" t="s">
-        <v>316</v>
-      </c>
-      <c r="M53" t="s">
-        <v>364</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="L53">
+        <v>8.9</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>358.76404494382024</v>
+      </c>
+      <c r="N53" t="s">
+        <v>293</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4406,17 +4201,21 @@
       <c r="K54" t="s">
         <v>291</v>
       </c>
-      <c r="L54" t="s">
-        <v>317</v>
-      </c>
-      <c r="M54" t="s">
-        <v>364</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="L54">
+        <v>1.5</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>548.66666666666663</v>
+      </c>
+      <c r="N54" t="s">
+        <v>293</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4444,17 +4243,21 @@
       <c r="K55" t="s">
         <v>291</v>
       </c>
-      <c r="L55" t="s">
-        <v>318</v>
-      </c>
-      <c r="M55" t="s">
-        <v>364</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="L55">
+        <v>1.4</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>587.85714285714289</v>
+      </c>
+      <c r="N55" t="s">
+        <v>293</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4482,17 +4285,21 @@
       <c r="K56" t="s">
         <v>291</v>
       </c>
-      <c r="L56" t="s">
-        <v>300</v>
-      </c>
-      <c r="M56" t="s">
-        <v>364</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="L56">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>428.03921568627453</v>
+      </c>
+      <c r="N56" t="s">
+        <v>293</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4520,17 +4327,21 @@
       <c r="K57" t="s">
         <v>291</v>
       </c>
-      <c r="L57" t="s">
-        <v>313</v>
-      </c>
-      <c r="M57" t="s">
-        <v>364</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="L57">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>388.86597938144331</v>
+      </c>
+      <c r="N57" t="s">
+        <v>293</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4558,17 +4369,18 @@
       <c r="K58" t="s">
         <v>291</v>
       </c>
-      <c r="L58" t="s">
-        <v>293</v>
-      </c>
-      <c r="M58" t="s">
-        <v>374</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="L58">
+        <v>7.5</v>
+      </c>
+      <c r="M58" s="5">
+        <f t="shared" si="0"/>
+        <v>446.93333333333334</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4596,17 +4408,21 @@
       <c r="K59" t="s">
         <v>291</v>
       </c>
-      <c r="L59" t="s">
-        <v>319</v>
-      </c>
-      <c r="M59" t="s">
-        <v>387</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="L59">
+        <v>2.5</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+      <c r="N59" t="s">
+        <v>296</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4634,17 +4450,21 @@
       <c r="K60" t="s">
         <v>291</v>
       </c>
-      <c r="L60" t="s">
-        <v>320</v>
-      </c>
-      <c r="M60" t="s">
-        <v>364</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="L60">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>333.40909090909088</v>
+      </c>
+      <c r="N60" t="s">
+        <v>293</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4672,17 +4492,21 @@
       <c r="K61" t="s">
         <v>291</v>
       </c>
-      <c r="L61" t="s">
-        <v>318</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="L61">
+        <v>1.4</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="N61" t="s">
+        <v>293</v>
+      </c>
+      <c r="O61" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="N61" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4710,17 +4534,21 @@
       <c r="K62" t="s">
         <v>291</v>
       </c>
-      <c r="L62" t="s">
-        <v>321</v>
-      </c>
-      <c r="M62" t="s">
-        <v>364</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="L62">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>365.60975609756099</v>
+      </c>
+      <c r="N62" t="s">
+        <v>293</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4748,17 +4576,18 @@
       <c r="K63" t="s">
         <v>291</v>
       </c>
-      <c r="L63" t="s">
-        <v>293</v>
-      </c>
-      <c r="M63" t="s">
-        <v>388</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="L63">
+        <v>2.8</v>
+      </c>
+      <c r="M63" s="5">
+        <f t="shared" si="0"/>
+        <v>470.35714285714289</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4786,17 +4615,18 @@
       <c r="K64" t="s">
         <v>291</v>
       </c>
-      <c r="L64" t="s">
-        <v>293</v>
-      </c>
-      <c r="M64" t="s">
-        <v>389</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="L64">
+        <v>3.1</v>
+      </c>
+      <c r="M64" s="5">
+        <f t="shared" si="0"/>
+        <v>476.12903225806451</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4824,17 +4654,18 @@
       <c r="K65" t="s">
         <v>291</v>
       </c>
-      <c r="L65" t="s">
-        <v>293</v>
-      </c>
-      <c r="M65" t="s">
-        <v>340</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="L65">
+        <v>5.8</v>
+      </c>
+      <c r="M65" s="5">
+        <f t="shared" si="0"/>
+        <v>522.75862068965523</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4862,17 +4693,18 @@
       <c r="K66" t="s">
         <v>291</v>
       </c>
-      <c r="L66" t="s">
-        <v>293</v>
-      </c>
-      <c r="M66" t="s">
-        <v>332</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="L66">
+        <v>4.2</v>
+      </c>
+      <c r="M66" s="5">
+        <f t="shared" si="0"/>
+        <v>339.28571428571428</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4900,17 +4732,18 @@
       <c r="K67" t="s">
         <v>291</v>
       </c>
-      <c r="L67" t="s">
-        <v>293</v>
-      </c>
-      <c r="M67" t="s">
-        <v>389</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="L67">
+        <v>3.1</v>
+      </c>
+      <c r="M67" s="5">
+        <f t="shared" ref="M67:M130" si="1">E67/L67</f>
+        <v>369.67741935483872</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4938,17 +4771,18 @@
       <c r="K68" t="s">
         <v>291</v>
       </c>
-      <c r="L68" t="s">
-        <v>293</v>
-      </c>
-      <c r="M68" t="s">
-        <v>322</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="L68">
+        <v>7.3</v>
+      </c>
+      <c r="M68" s="5">
+        <f t="shared" si="1"/>
+        <v>317.39726027397262</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4976,17 +4810,18 @@
       <c r="K69" t="s">
         <v>291</v>
       </c>
-      <c r="L69" t="s">
-        <v>293</v>
-      </c>
-      <c r="M69" t="s">
-        <v>338</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="L69">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M69" s="5">
+        <f t="shared" si="1"/>
+        <v>344.48979591836735</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5014,17 +4849,18 @@
       <c r="K70" t="s">
         <v>291</v>
       </c>
-      <c r="L70" t="s">
-        <v>293</v>
-      </c>
-      <c r="M70" t="s">
-        <v>311</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="L70">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M70" s="5">
+        <f t="shared" si="1"/>
+        <v>329.77272727272725</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5052,17 +4888,21 @@
       <c r="K71" t="s">
         <v>291</v>
       </c>
-      <c r="L71" t="s">
-        <v>322</v>
-      </c>
-      <c r="M71" t="s">
-        <v>364</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="L71">
+        <v>7.3</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>333.83561643835617</v>
+      </c>
+      <c r="N71" t="s">
+        <v>293</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5090,17 +4930,18 @@
       <c r="K72" t="s">
         <v>291</v>
       </c>
-      <c r="L72" t="s">
-        <v>293</v>
-      </c>
-      <c r="M72" t="s">
-        <v>363</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="L72">
+        <v>1.9</v>
+      </c>
+      <c r="M72" s="5">
+        <f t="shared" si="1"/>
+        <v>370.5263157894737</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5128,17 +4969,18 @@
       <c r="K73" t="s">
         <v>291</v>
       </c>
-      <c r="L73" t="s">
-        <v>293</v>
-      </c>
-      <c r="M73" t="s">
-        <v>390</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="L73">
+        <v>1.8</v>
+      </c>
+      <c r="M73" s="5">
+        <f t="shared" si="1"/>
+        <v>387.22222222222223</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5166,17 +5008,21 @@
       <c r="K74" t="s">
         <v>291</v>
       </c>
-      <c r="L74" t="s">
-        <v>323</v>
-      </c>
-      <c r="M74" t="s">
-        <v>364</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="L74">
+        <v>12.2</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="1"/>
+        <v>387.95081967213116</v>
+      </c>
+      <c r="N74" t="s">
+        <v>293</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5204,17 +5050,18 @@
       <c r="K75" t="s">
         <v>291</v>
       </c>
-      <c r="L75" t="s">
-        <v>293</v>
-      </c>
-      <c r="M75" t="s">
-        <v>391</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="L75">
+        <v>20.2</v>
+      </c>
+      <c r="M75" s="5">
+        <f t="shared" si="1"/>
+        <v>369.60396039603961</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5242,17 +5089,18 @@
       <c r="K76" t="s">
         <v>291</v>
       </c>
-      <c r="L76" t="s">
-        <v>293</v>
-      </c>
-      <c r="M76" t="s">
-        <v>392</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="L76">
+        <v>1.7</v>
+      </c>
+      <c r="M76" s="5">
+        <f t="shared" si="1"/>
+        <v>422.35294117647061</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5280,17 +5128,18 @@
       <c r="K77" t="s">
         <v>291</v>
       </c>
-      <c r="L77" t="s">
-        <v>293</v>
-      </c>
-      <c r="M77" t="s">
-        <v>393</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="L77">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M77" s="5">
+        <f t="shared" si="1"/>
+        <v>346.95652173913044</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5318,17 +5167,21 @@
       <c r="K78" t="s">
         <v>291</v>
       </c>
-      <c r="L78" t="s">
-        <v>324</v>
-      </c>
-      <c r="M78" t="s">
-        <v>364</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="L78">
+        <v>14</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>325.64285714285717</v>
+      </c>
+      <c r="N78" t="s">
+        <v>293</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5356,17 +5209,21 @@
       <c r="K79" t="s">
         <v>291</v>
       </c>
-      <c r="L79" t="s">
-        <v>325</v>
-      </c>
-      <c r="M79" t="s">
-        <v>364</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="L79">
+        <v>9.5</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="1"/>
+        <v>412.73684210526318</v>
+      </c>
+      <c r="N79" t="s">
+        <v>293</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5394,17 +5251,18 @@
       <c r="K80" t="s">
         <v>291</v>
       </c>
-      <c r="L80" t="s">
-        <v>293</v>
-      </c>
-      <c r="M80" t="s">
-        <v>394</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="L80">
+        <v>18</v>
+      </c>
+      <c r="M80" s="5">
+        <f t="shared" si="1"/>
+        <v>392.66666666666669</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5432,17 +5290,21 @@
       <c r="K81" t="s">
         <v>291</v>
       </c>
-      <c r="L81" t="s">
-        <v>326</v>
-      </c>
-      <c r="M81" t="s">
-        <v>364</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="L81">
+        <v>24</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>327.83333333333331</v>
+      </c>
+      <c r="N81" t="s">
+        <v>293</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5470,17 +5332,18 @@
       <c r="K82" t="s">
         <v>291</v>
       </c>
-      <c r="L82" t="s">
-        <v>293</v>
-      </c>
-      <c r="M82" t="s">
-        <v>330</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="L82">
+        <v>21</v>
+      </c>
+      <c r="M82" s="5">
+        <f t="shared" si="1"/>
+        <v>326.90476190476193</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5508,17 +5371,18 @@
       <c r="K83" t="s">
         <v>291</v>
       </c>
-      <c r="L83" t="s">
-        <v>293</v>
-      </c>
-      <c r="M83" t="s">
-        <v>395</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="L83">
+        <v>33</v>
+      </c>
+      <c r="M83" s="5">
+        <f t="shared" si="1"/>
+        <v>374.87878787878788</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5546,17 +5410,21 @@
       <c r="K84" t="s">
         <v>291</v>
       </c>
-      <c r="L84" t="s">
-        <v>327</v>
-      </c>
-      <c r="M84" t="s">
-        <v>364</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="L84">
+        <v>27</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="1"/>
+        <v>326.44444444444446</v>
+      </c>
+      <c r="N84" t="s">
+        <v>293</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5584,17 +5452,21 @@
       <c r="K85" t="s">
         <v>291</v>
       </c>
-      <c r="L85" t="s">
-        <v>328</v>
-      </c>
-      <c r="M85" t="s">
-        <v>364</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="L85">
+        <v>25</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="1"/>
+        <v>334.52</v>
+      </c>
+      <c r="N85" t="s">
+        <v>293</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5622,17 +5494,21 @@
       <c r="K86" t="s">
         <v>291</v>
       </c>
-      <c r="L86" t="s">
-        <v>329</v>
-      </c>
-      <c r="M86" t="s">
-        <v>364</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="L86">
+        <v>12.5</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="1"/>
+        <v>352.88</v>
+      </c>
+      <c r="N86" t="s">
+        <v>293</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5660,17 +5536,21 @@
       <c r="K87" t="s">
         <v>291</v>
       </c>
-      <c r="L87" t="s">
-        <v>330</v>
-      </c>
-      <c r="M87" t="s">
-        <v>364</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="L87">
+        <v>21</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>450.76190476190476</v>
+      </c>
+      <c r="N87" t="s">
+        <v>293</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5698,17 +5578,18 @@
       <c r="K88" t="s">
         <v>291</v>
       </c>
-      <c r="L88" t="s">
-        <v>293</v>
-      </c>
-      <c r="M88" t="s">
-        <v>396</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="L88">
+        <v>67</v>
+      </c>
+      <c r="M88" s="5">
+        <f t="shared" si="1"/>
+        <v>327.19402985074629</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5736,17 +5617,21 @@
       <c r="K89" t="s">
         <v>291</v>
       </c>
-      <c r="L89" t="s">
-        <v>331</v>
-      </c>
-      <c r="M89" t="s">
-        <v>364</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="L89">
+        <v>15</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>352.06666666666666</v>
+      </c>
+      <c r="N89" t="s">
+        <v>293</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5774,17 +5659,21 @@
       <c r="K90" t="s">
         <v>291</v>
       </c>
-      <c r="L90" t="s">
-        <v>332</v>
-      </c>
-      <c r="M90" t="s">
-        <v>397</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="L90">
+        <v>4.2</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="N90" t="s">
+        <v>297</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5812,17 +5701,21 @@
       <c r="K91" t="s">
         <v>291</v>
       </c>
-      <c r="L91" t="s">
-        <v>321</v>
-      </c>
-      <c r="M91" t="s">
-        <v>397</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="L91">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>973.17073170731715</v>
+      </c>
+      <c r="N91" t="s">
+        <v>297</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5850,17 +5743,21 @@
       <c r="K92" t="s">
         <v>291</v>
       </c>
-      <c r="L92" t="s">
-        <v>333</v>
-      </c>
-      <c r="M92" t="s">
-        <v>397</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="L92">
+        <v>4.7</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="1"/>
+        <v>933.82978723404256</v>
+      </c>
+      <c r="N92" t="s">
+        <v>297</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5888,17 +5785,21 @@
       <c r="K93" t="s">
         <v>291</v>
       </c>
-      <c r="L93" t="s">
-        <v>334</v>
-      </c>
-      <c r="M93" t="s">
-        <v>397</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="L93">
+        <v>4.5</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="1"/>
+        <v>886.66666666666663</v>
+      </c>
+      <c r="N93" t="s">
+        <v>297</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5926,17 +5827,21 @@
       <c r="K94" t="s">
         <v>291</v>
       </c>
-      <c r="L94" t="s">
-        <v>335</v>
-      </c>
-      <c r="M94" t="s">
+      <c r="L94">
+        <v>3.8</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="N94" t="s">
+        <v>297</v>
+      </c>
+      <c r="O94" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="N94" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5964,17 +5869,21 @@
       <c r="K95" t="s">
         <v>291</v>
       </c>
-      <c r="L95" t="s">
-        <v>336</v>
-      </c>
-      <c r="M95" t="s">
-        <v>397</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="L95">
+        <v>3.9</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>1023.0769230769231</v>
+      </c>
+      <c r="N95" t="s">
+        <v>297</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -6002,17 +5911,21 @@
       <c r="K96" t="s">
         <v>291</v>
       </c>
-      <c r="L96" t="s">
-        <v>337</v>
-      </c>
-      <c r="M96" t="s">
-        <v>397</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="L96">
+        <v>3.7</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="1"/>
+        <v>1078.3783783783783</v>
+      </c>
+      <c r="N96" t="s">
+        <v>297</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6040,17 +5953,21 @@
       <c r="K97" t="s">
         <v>291</v>
       </c>
-      <c r="L97" t="s">
-        <v>338</v>
-      </c>
-      <c r="M97" t="s">
-        <v>397</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="L97">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="1"/>
+        <v>895.71428571428567</v>
+      </c>
+      <c r="N97" t="s">
+        <v>297</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6078,17 +5995,21 @@
       <c r="K98" t="s">
         <v>292</v>
       </c>
-      <c r="L98" t="s">
-        <v>339</v>
-      </c>
-      <c r="M98" t="s">
-        <v>398</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="L98">
+        <v>2.9</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="1"/>
+        <v>982.41379310344826</v>
+      </c>
+      <c r="N98" t="s">
+        <v>298</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6116,17 +6037,18 @@
       <c r="K99" t="s">
         <v>291</v>
       </c>
-      <c r="L99" t="s">
-        <v>293</v>
-      </c>
-      <c r="M99" t="s">
-        <v>332</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="L99">
+        <v>4.2</v>
+      </c>
+      <c r="M99" s="5">
+        <f t="shared" si="1"/>
+        <v>297.38095238095235</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6154,17 +6076,18 @@
       <c r="K100" t="s">
         <v>291</v>
       </c>
-      <c r="L100" t="s">
-        <v>293</v>
-      </c>
-      <c r="M100" t="s">
-        <v>388</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="L100">
+        <v>2.8</v>
+      </c>
+      <c r="M100" s="5">
+        <f t="shared" si="1"/>
+        <v>339.28571428571433</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6192,17 +6115,21 @@
       <c r="K101" t="s">
         <v>291</v>
       </c>
-      <c r="L101" t="s">
-        <v>340</v>
-      </c>
-      <c r="M101" t="s">
-        <v>364</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="L101">
+        <v>5.8</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="1"/>
+        <v>295.17241379310343</v>
+      </c>
+      <c r="N101" t="s">
+        <v>293</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6230,17 +6157,18 @@
       <c r="K102" t="s">
         <v>291</v>
       </c>
-      <c r="L102" t="s">
-        <v>293</v>
-      </c>
-      <c r="M102" t="s">
-        <v>399</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="L102">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M102" s="5">
+        <f t="shared" si="1"/>
+        <v>369.01960784313729</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6268,17 +6196,18 @@
       <c r="K103" t="s">
         <v>291</v>
       </c>
-      <c r="L103" t="s">
-        <v>293</v>
-      </c>
-      <c r="M103" t="s">
-        <v>388</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="L103">
+        <v>2.8</v>
+      </c>
+      <c r="M103" s="5">
+        <f t="shared" si="1"/>
+        <v>339.28571428571433</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6306,17 +6235,18 @@
       <c r="K104" t="s">
         <v>291</v>
       </c>
-      <c r="L104" t="s">
-        <v>293</v>
-      </c>
-      <c r="M104" t="s">
-        <v>340</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="L104">
+        <v>5.8</v>
+      </c>
+      <c r="M104" s="5">
+        <f t="shared" si="1"/>
+        <v>316.37931034482762</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6344,17 +6274,18 @@
       <c r="K105" t="s">
         <v>291</v>
       </c>
-      <c r="L105" t="s">
-        <v>293</v>
-      </c>
-      <c r="M105" t="s">
-        <v>333</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="L105">
+        <v>4.7</v>
+      </c>
+      <c r="M105" s="5">
+        <f t="shared" si="1"/>
+        <v>329.14893617021278</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6382,17 +6313,18 @@
       <c r="K106" t="s">
         <v>291</v>
       </c>
-      <c r="L106" t="s">
-        <v>293</v>
-      </c>
-      <c r="M106" t="s">
-        <v>296</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="L106">
+        <v>5.7</v>
+      </c>
+      <c r="M106" s="5">
+        <f t="shared" si="1"/>
+        <v>398.77192982456137</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -6420,17 +6352,18 @@
       <c r="K107" t="s">
         <v>291</v>
       </c>
-      <c r="L107" t="s">
-        <v>293</v>
-      </c>
-      <c r="M107" t="s">
-        <v>333</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="L107">
+        <v>4.7</v>
+      </c>
+      <c r="M107" s="5">
+        <f t="shared" si="1"/>
+        <v>384.89361702127655</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -6458,17 +6391,18 @@
       <c r="K108" t="s">
         <v>291</v>
       </c>
-      <c r="L108" t="s">
-        <v>293</v>
-      </c>
-      <c r="M108" t="s">
-        <v>400</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="L108">
+        <v>185</v>
+      </c>
+      <c r="M108" s="5">
+        <f t="shared" si="1"/>
+        <v>281.44324324324322</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -6496,17 +6430,18 @@
       <c r="K109" t="s">
         <v>291</v>
       </c>
-      <c r="L109" t="s">
-        <v>293</v>
-      </c>
-      <c r="M109" t="s">
-        <v>401</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="L109">
+        <v>420</v>
+      </c>
+      <c r="M109" s="5">
+        <f t="shared" si="1"/>
+        <v>285.3261904761905</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -6534,17 +6469,18 @@
       <c r="K110" t="s">
         <v>291</v>
       </c>
-      <c r="L110" t="s">
-        <v>293</v>
-      </c>
-      <c r="M110" t="s">
-        <v>402</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="L110">
+        <v>306</v>
+      </c>
+      <c r="M110" s="5">
+        <f t="shared" si="1"/>
+        <v>282.39215686274508</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -6572,17 +6508,18 @@
       <c r="K111" t="s">
         <v>291</v>
       </c>
-      <c r="L111" t="s">
-        <v>293</v>
-      </c>
-      <c r="M111" t="s">
-        <v>403</v>
-      </c>
-      <c r="N111" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="L111">
+        <v>225</v>
+      </c>
+      <c r="M111" s="5">
+        <f t="shared" si="1"/>
+        <v>296.54666666666668</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6610,17 +6547,21 @@
       <c r="K112" t="s">
         <v>291</v>
       </c>
-      <c r="L112" t="s">
-        <v>341</v>
-      </c>
-      <c r="M112" t="s">
-        <v>364</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="L112">
+        <v>62</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="1"/>
+        <v>282.17741935483872</v>
+      </c>
+      <c r="N112" t="s">
+        <v>293</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6648,17 +6589,18 @@
       <c r="K113" t="s">
         <v>291</v>
       </c>
-      <c r="L113" t="s">
-        <v>293</v>
-      </c>
-      <c r="M113" t="s">
-        <v>404</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="L113">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M113" s="5">
+        <f t="shared" si="1"/>
+        <v>355.45454545454544</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6686,17 +6628,21 @@
       <c r="K114" t="s">
         <v>291</v>
       </c>
-      <c r="L114" t="s">
-        <v>342</v>
-      </c>
-      <c r="M114" t="s">
-        <v>405</v>
-      </c>
-      <c r="N114" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="L114">
+        <v>1.3</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="1"/>
+        <v>1043.8461538461538</v>
+      </c>
+      <c r="N114" t="s">
+        <v>299</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6724,17 +6670,18 @@
       <c r="K115" t="s">
         <v>291</v>
       </c>
-      <c r="L115" t="s">
-        <v>293</v>
-      </c>
-      <c r="M115" t="s">
-        <v>406</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="L115">
+        <v>0.6</v>
+      </c>
+      <c r="M115" s="5">
+        <f t="shared" si="1"/>
+        <v>531.66666666666674</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6762,17 +6709,18 @@
       <c r="K116" t="s">
         <v>291</v>
       </c>
-      <c r="L116" t="s">
-        <v>293</v>
-      </c>
-      <c r="M116" t="s">
-        <v>407</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="L116">
+        <v>1.2</v>
+      </c>
+      <c r="M116" s="5">
+        <f t="shared" si="1"/>
+        <v>465.83333333333337</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -6800,17 +6748,18 @@
       <c r="K117" t="s">
         <v>291</v>
       </c>
-      <c r="L117" t="s">
-        <v>293</v>
-      </c>
-      <c r="M117" t="s">
-        <v>408</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="L117">
+        <v>0.9</v>
+      </c>
+      <c r="M117" s="5">
+        <f t="shared" si="1"/>
+        <v>621.11111111111109</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -6838,17 +6787,21 @@
       <c r="K118" t="s">
         <v>291</v>
       </c>
-      <c r="L118" t="s">
-        <v>343</v>
-      </c>
-      <c r="M118" t="s">
-        <v>409</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="L118">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="1"/>
+        <v>1088.181818181818</v>
+      </c>
+      <c r="N118" t="s">
+        <v>300</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -6876,17 +6829,18 @@
       <c r="K119" t="s">
         <v>291</v>
       </c>
-      <c r="L119" t="s">
-        <v>293</v>
-      </c>
-      <c r="M119" t="s">
-        <v>390</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="L119">
+        <v>1.8</v>
+      </c>
+      <c r="M119" s="5">
+        <f t="shared" si="1"/>
+        <v>367.77777777777777</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -6914,17 +6868,18 @@
       <c r="K120" t="s">
         <v>291</v>
       </c>
-      <c r="L120" t="s">
-        <v>293</v>
-      </c>
-      <c r="M120" t="s">
-        <v>317</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="L120">
+        <v>1.5</v>
+      </c>
+      <c r="M120" s="5">
+        <f t="shared" si="1"/>
+        <v>441.33333333333331</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -6952,17 +6907,18 @@
       <c r="K121" t="s">
         <v>291</v>
       </c>
-      <c r="L121" t="s">
-        <v>293</v>
-      </c>
-      <c r="M121" t="s">
-        <v>390</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="L121">
+        <v>1.8</v>
+      </c>
+      <c r="M121" s="5">
+        <f t="shared" si="1"/>
+        <v>367.77777777777777</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6990,17 +6946,18 @@
       <c r="K122" t="s">
         <v>291</v>
       </c>
-      <c r="L122" t="s">
-        <v>293</v>
-      </c>
-      <c r="M122" t="s">
-        <v>404</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+      <c r="L122">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M122" s="5">
+        <f t="shared" si="1"/>
+        <v>355.45454545454544</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7028,17 +6985,18 @@
       <c r="K123" t="s">
         <v>291</v>
       </c>
-      <c r="L123" t="s">
-        <v>293</v>
-      </c>
-      <c r="M123" t="s">
-        <v>410</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+      <c r="L123">
+        <v>2.1</v>
+      </c>
+      <c r="M123" s="5">
+        <f t="shared" si="1"/>
+        <v>391.42857142857139</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7066,17 +7024,18 @@
       <c r="K124" t="s">
         <v>291</v>
       </c>
-      <c r="L124" t="s">
-        <v>293</v>
-      </c>
-      <c r="M124" t="s">
-        <v>393</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+      <c r="L124">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M124" s="5">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7104,17 +7063,18 @@
       <c r="K125" t="s">
         <v>291</v>
       </c>
-      <c r="L125" t="s">
-        <v>293</v>
-      </c>
-      <c r="M125" t="s">
-        <v>363</v>
-      </c>
-      <c r="N125" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+      <c r="L125">
+        <v>1.9</v>
+      </c>
+      <c r="M125" s="5">
+        <f t="shared" si="1"/>
+        <v>411.5789473684211</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7142,17 +7102,18 @@
       <c r="K126" t="s">
         <v>291</v>
       </c>
-      <c r="L126" t="s">
-        <v>293</v>
-      </c>
-      <c r="M126" t="s">
-        <v>411</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="L126">
+        <v>20.7</v>
+      </c>
+      <c r="M126" s="5">
+        <f t="shared" si="1"/>
+        <v>337.72946859903385</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7180,17 +7141,18 @@
       <c r="K127" t="s">
         <v>291</v>
       </c>
-      <c r="L127" t="s">
-        <v>293</v>
-      </c>
-      <c r="M127" t="s">
-        <v>338</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+      <c r="L127">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M127" s="5">
+        <f t="shared" si="1"/>
+        <v>324.69387755102036</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7221,17 +7183,21 @@
       <c r="K128" t="s">
         <v>291</v>
       </c>
-      <c r="L128" t="s">
-        <v>344</v>
-      </c>
-      <c r="M128" t="s">
-        <v>366</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+      <c r="L128">
+        <v>8</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="1"/>
+        <v>528.625</v>
+      </c>
+      <c r="N128" t="s">
+        <v>294</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7259,17 +7225,18 @@
       <c r="K129" t="s">
         <v>291</v>
       </c>
-      <c r="L129" t="s">
-        <v>293</v>
-      </c>
-      <c r="M129" t="s">
-        <v>412</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="L129">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="M129" s="5">
+        <f t="shared" si="1"/>
+        <v>292.42236024844721</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7297,17 +7264,18 @@
       <c r="K130" t="s">
         <v>291</v>
       </c>
-      <c r="L130" t="s">
-        <v>293</v>
-      </c>
-      <c r="M130" t="s">
-        <v>413</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="L130">
+        <v>16.3</v>
+      </c>
+      <c r="M130" s="5">
+        <f t="shared" si="1"/>
+        <v>288.83435582822085</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7335,17 +7303,18 @@
       <c r="K131" t="s">
         <v>291</v>
       </c>
-      <c r="L131" t="s">
-        <v>293</v>
-      </c>
-      <c r="M131" t="s">
-        <v>414</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="L131">
+        <v>17</v>
+      </c>
+      <c r="M131" s="5">
+        <f t="shared" ref="M131:M191" si="2">E131/L131</f>
+        <v>295.70588235294116</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7373,17 +7342,18 @@
       <c r="K132" t="s">
         <v>291</v>
       </c>
-      <c r="L132" t="s">
-        <v>293</v>
-      </c>
-      <c r="M132" t="s">
-        <v>415</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="L132">
+        <v>17.7</v>
+      </c>
+      <c r="M132" s="5">
+        <f t="shared" si="2"/>
+        <v>284.01129943502826</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7411,17 +7381,18 @@
       <c r="K133" t="s">
         <v>291</v>
       </c>
-      <c r="L133" t="s">
-        <v>293</v>
-      </c>
-      <c r="M133" t="s">
-        <v>394</v>
-      </c>
-      <c r="N133" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+      <c r="L133">
+        <v>18</v>
+      </c>
+      <c r="M133" s="5">
+        <f t="shared" si="2"/>
+        <v>279.27777777777777</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7449,17 +7420,18 @@
       <c r="K134" t="s">
         <v>291</v>
       </c>
-      <c r="L134" t="s">
-        <v>293</v>
-      </c>
-      <c r="M134" t="s">
-        <v>416</v>
-      </c>
-      <c r="N134" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="L134">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M134" s="5">
+        <f t="shared" si="2"/>
+        <v>270.26881720430106</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7490,17 +7462,21 @@
       <c r="K135" t="s">
         <v>291</v>
       </c>
-      <c r="L135" t="s">
-        <v>345</v>
-      </c>
-      <c r="M135" t="s">
-        <v>364</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+      <c r="L135">
+        <v>27.8</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="2"/>
+        <v>369.96402877697841</v>
+      </c>
+      <c r="N135" t="s">
+        <v>293</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7528,17 +7504,21 @@
       <c r="K136" t="s">
         <v>291</v>
       </c>
-      <c r="L136" t="s">
-        <v>304</v>
-      </c>
-      <c r="M136" t="s">
-        <v>364</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+      <c r="L136">
+        <v>23</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="2"/>
+        <v>391.47826086956519</v>
+      </c>
+      <c r="N136" t="s">
+        <v>293</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -7569,17 +7549,18 @@
       <c r="K137" t="s">
         <v>291</v>
       </c>
-      <c r="L137" t="s">
-        <v>293</v>
-      </c>
-      <c r="M137" t="s">
-        <v>333</v>
-      </c>
-      <c r="N137" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="L137">
+        <v>4.7</v>
+      </c>
+      <c r="M137" s="5">
+        <f t="shared" si="2"/>
+        <v>365.10638297872339</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -7610,17 +7591,18 @@
       <c r="K138" t="s">
         <v>291</v>
       </c>
-      <c r="L138" t="s">
-        <v>293</v>
-      </c>
-      <c r="M138" t="s">
-        <v>333</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="L138">
+        <v>4.7</v>
+      </c>
+      <c r="M138" s="5">
+        <f t="shared" si="2"/>
+        <v>365.10638297872339</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -7651,17 +7633,18 @@
       <c r="K139" t="s">
         <v>291</v>
       </c>
-      <c r="L139" t="s">
-        <v>293</v>
-      </c>
-      <c r="M139" t="s">
-        <v>374</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="L139">
+        <v>7.5</v>
+      </c>
+      <c r="M139" s="5">
+        <f t="shared" si="2"/>
+        <v>303.33333333333331</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -7689,17 +7672,18 @@
       <c r="K140" t="s">
         <v>291</v>
       </c>
-      <c r="L140" t="s">
-        <v>293</v>
-      </c>
-      <c r="M140" t="s">
-        <v>392</v>
-      </c>
-      <c r="N140" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+      <c r="L140">
+        <v>1.7</v>
+      </c>
+      <c r="M140" s="5">
+        <f t="shared" si="2"/>
+        <v>423.52941176470591</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -7727,17 +7711,18 @@
       <c r="K141" t="s">
         <v>291</v>
       </c>
-      <c r="L141" t="s">
-        <v>293</v>
-      </c>
-      <c r="M141" t="s">
-        <v>392</v>
-      </c>
-      <c r="N141" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="L141">
+        <v>1.7</v>
+      </c>
+      <c r="M141" s="5">
+        <f t="shared" si="2"/>
+        <v>423.52941176470591</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -7765,17 +7750,18 @@
       <c r="K142" t="s">
         <v>291</v>
       </c>
-      <c r="L142" t="s">
-        <v>293</v>
-      </c>
-      <c r="M142" t="s">
-        <v>294</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+      <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142" s="5">
+        <f t="shared" si="2"/>
+        <v>314.24242424242425</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -7803,17 +7789,18 @@
       <c r="K143" t="s">
         <v>291</v>
       </c>
-      <c r="L143" t="s">
-        <v>293</v>
-      </c>
-      <c r="M143" t="s">
-        <v>417</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="L143">
+        <v>3.4</v>
+      </c>
+      <c r="M143" s="5">
+        <f t="shared" si="2"/>
+        <v>350.58823529411768</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -7841,17 +7828,21 @@
       <c r="K144" t="s">
         <v>291</v>
       </c>
-      <c r="L144" t="s">
-        <v>346</v>
-      </c>
-      <c r="M144" t="s">
-        <v>364</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+      <c r="L144">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="2"/>
+        <v>318.78048780487808</v>
+      </c>
+      <c r="N144" t="s">
+        <v>293</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -7882,17 +7873,21 @@
       <c r="K145" t="s">
         <v>291</v>
       </c>
-      <c r="L145" t="s">
-        <v>313</v>
-      </c>
-      <c r="M145" t="s">
-        <v>364</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+      <c r="L145">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="2"/>
+        <v>374.63917525773201</v>
+      </c>
+      <c r="N145" t="s">
+        <v>293</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -7920,17 +7915,18 @@
       <c r="K146" t="s">
         <v>291</v>
       </c>
-      <c r="L146" t="s">
-        <v>293</v>
-      </c>
-      <c r="M146" t="s">
-        <v>371</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+      <c r="L146">
+        <v>12.8</v>
+      </c>
+      <c r="M146" s="5">
+        <f t="shared" si="2"/>
+        <v>330.390625</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -7958,17 +7954,18 @@
       <c r="K147" t="s">
         <v>291</v>
       </c>
-      <c r="L147" t="s">
-        <v>293</v>
-      </c>
-      <c r="M147" t="s">
-        <v>371</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="L147">
+        <v>12.8</v>
+      </c>
+      <c r="M147" s="5">
+        <f t="shared" si="2"/>
+        <v>330.390625</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -7996,17 +7993,18 @@
       <c r="K148" t="s">
         <v>291</v>
       </c>
-      <c r="L148" t="s">
-        <v>293</v>
-      </c>
-      <c r="M148" t="s">
-        <v>371</v>
-      </c>
-      <c r="N148" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="L148">
+        <v>12.8</v>
+      </c>
+      <c r="M148" s="5">
+        <f t="shared" si="2"/>
+        <v>330.390625</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8034,17 +8032,18 @@
       <c r="K149" t="s">
         <v>291</v>
       </c>
-      <c r="L149" t="s">
-        <v>293</v>
-      </c>
-      <c r="M149" t="s">
-        <v>418</v>
-      </c>
-      <c r="N149" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="L149">
+        <v>8.1</v>
+      </c>
+      <c r="M149" s="5">
+        <f t="shared" si="2"/>
+        <v>344.81481481481484</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8072,17 +8071,18 @@
       <c r="K150" t="s">
         <v>291</v>
       </c>
-      <c r="L150" t="s">
-        <v>293</v>
-      </c>
-      <c r="M150" t="s">
-        <v>350</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="L150">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M150" s="5">
+        <f t="shared" si="2"/>
+        <v>388.91566265060237</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8110,17 +8110,18 @@
       <c r="K151" t="s">
         <v>291</v>
       </c>
-      <c r="L151" t="s">
-        <v>293</v>
-      </c>
-      <c r="M151" t="s">
-        <v>419</v>
-      </c>
-      <c r="N151" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="L151">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M151" s="5">
+        <f t="shared" si="2"/>
+        <v>311.83908045977012</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8148,17 +8149,18 @@
       <c r="K152" t="s">
         <v>291</v>
       </c>
-      <c r="L152" t="s">
-        <v>293</v>
-      </c>
-      <c r="M152" t="s">
-        <v>420</v>
-      </c>
-      <c r="N152" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+      <c r="L152">
+        <v>7.9</v>
+      </c>
+      <c r="M152" s="5">
+        <f t="shared" si="2"/>
+        <v>353.54430379746833</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -8186,17 +8188,18 @@
       <c r="K153" t="s">
         <v>291</v>
       </c>
-      <c r="L153" t="s">
-        <v>293</v>
-      </c>
-      <c r="M153" t="s">
-        <v>421</v>
-      </c>
-      <c r="N153" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+      <c r="L153">
+        <v>7.8</v>
+      </c>
+      <c r="M153" s="5">
+        <f t="shared" si="2"/>
+        <v>358.07692307692309</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -8224,17 +8227,18 @@
       <c r="K154" t="s">
         <v>291</v>
       </c>
-      <c r="L154" t="s">
-        <v>293</v>
-      </c>
-      <c r="M154" t="s">
-        <v>346</v>
-      </c>
-      <c r="N154" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+      <c r="L154">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M154" s="5">
+        <f t="shared" si="2"/>
+        <v>330.85365853658539</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -8262,17 +8266,18 @@
       <c r="K155" t="s">
         <v>291</v>
       </c>
-      <c r="L155" t="s">
-        <v>293</v>
-      </c>
-      <c r="M155" t="s">
-        <v>420</v>
-      </c>
-      <c r="N155" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+      <c r="L155">
+        <v>7.9</v>
+      </c>
+      <c r="M155" s="5">
+        <f t="shared" si="2"/>
+        <v>408.60759493670884</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -8300,17 +8305,18 @@
       <c r="K156" t="s">
         <v>291</v>
       </c>
-      <c r="L156" t="s">
-        <v>293</v>
-      </c>
-      <c r="M156" t="s">
-        <v>344</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+      <c r="L156">
+        <v>8</v>
+      </c>
+      <c r="M156" s="5">
+        <f t="shared" si="2"/>
+        <v>403.5</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -8338,17 +8344,21 @@
       <c r="K157" t="s">
         <v>291</v>
       </c>
-      <c r="L157" t="s">
-        <v>347</v>
-      </c>
-      <c r="M157" t="s">
-        <v>364</v>
-      </c>
-      <c r="N157" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+      <c r="L157">
+        <v>75</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="2"/>
+        <v>289.73333333333335</v>
+      </c>
+      <c r="N157" t="s">
+        <v>293</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -8376,17 +8386,21 @@
       <c r="K158" t="s">
         <v>291</v>
       </c>
-      <c r="L158" t="s">
-        <v>348</v>
-      </c>
-      <c r="M158" t="s">
-        <v>409</v>
-      </c>
-      <c r="N158" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+      <c r="L158">
+        <v>5.2</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="2"/>
+        <v>613.84615384615381</v>
+      </c>
+      <c r="N158" t="s">
+        <v>300</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -8414,17 +8428,21 @@
       <c r="K159" t="s">
         <v>291</v>
       </c>
-      <c r="L159" t="s">
-        <v>349</v>
-      </c>
-      <c r="M159" t="s">
-        <v>409</v>
-      </c>
-      <c r="N159" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+      <c r="L159">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="2"/>
+        <v>625.88235294117646</v>
+      </c>
+      <c r="N159" t="s">
+        <v>300</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -8452,17 +8470,18 @@
       <c r="K160" t="s">
         <v>291</v>
       </c>
-      <c r="L160" t="s">
-        <v>293</v>
-      </c>
-      <c r="M160" t="s">
-        <v>296</v>
-      </c>
-      <c r="N160" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+      <c r="L160">
+        <v>5.7</v>
+      </c>
+      <c r="M160" s="5">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8490,17 +8509,18 @@
       <c r="K161" t="s">
         <v>291</v>
       </c>
-      <c r="L161" t="s">
-        <v>293</v>
-      </c>
-      <c r="M161" t="s">
-        <v>390</v>
-      </c>
-      <c r="N161" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+      <c r="L161">
+        <v>1.8</v>
+      </c>
+      <c r="M161" s="5">
+        <f t="shared" si="2"/>
+        <v>367.77777777777777</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8528,17 +8548,18 @@
       <c r="K162" t="s">
         <v>291</v>
       </c>
-      <c r="L162" t="s">
-        <v>293</v>
-      </c>
-      <c r="M162" t="s">
-        <v>390</v>
-      </c>
-      <c r="N162" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+      <c r="L162">
+        <v>1.8</v>
+      </c>
+      <c r="M162" s="5">
+        <f t="shared" si="2"/>
+        <v>367.77777777777777</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8566,17 +8587,18 @@
       <c r="K163" t="s">
         <v>291</v>
       </c>
-      <c r="L163" t="s">
-        <v>293</v>
-      </c>
-      <c r="M163" t="s">
-        <v>422</v>
-      </c>
-      <c r="N163" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+      <c r="L163">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M163" s="5">
+        <f t="shared" si="2"/>
+        <v>343.22580645161287</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8604,17 +8626,18 @@
       <c r="K164" t="s">
         <v>291</v>
       </c>
-      <c r="L164" t="s">
-        <v>293</v>
-      </c>
-      <c r="M164" t="s">
-        <v>311</v>
-      </c>
-      <c r="N164" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+      <c r="L164">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M164" s="5">
+        <f t="shared" si="2"/>
+        <v>362.72727272727269</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8642,17 +8665,21 @@
       <c r="K165" t="s">
         <v>291</v>
       </c>
-      <c r="L165" t="s">
-        <v>350</v>
-      </c>
-      <c r="M165" t="s">
-        <v>423</v>
-      </c>
-      <c r="N165" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+      <c r="L165">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="2"/>
+        <v>480.72289156626499</v>
+      </c>
+      <c r="N165" t="s">
+        <v>301</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8683,17 +8710,21 @@
       <c r="K166" t="s">
         <v>291</v>
       </c>
-      <c r="L166" t="s">
-        <v>351</v>
-      </c>
-      <c r="M166" t="s">
-        <v>424</v>
-      </c>
-      <c r="N166" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+      <c r="L166">
+        <v>4.3</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="2"/>
+        <v>723.7209302325582</v>
+      </c>
+      <c r="N166" t="s">
+        <v>302</v>
+      </c>
+      <c r="O166" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8721,17 +8752,21 @@
       <c r="K167" t="s">
         <v>291</v>
       </c>
-      <c r="L167" t="s">
-        <v>352</v>
-      </c>
-      <c r="M167" t="s">
-        <v>366</v>
-      </c>
-      <c r="N167" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+      <c r="L167">
+        <v>9.1</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="2"/>
+        <v>507.69230769230774</v>
+      </c>
+      <c r="N167" t="s">
+        <v>294</v>
+      </c>
+      <c r="O167" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8762,17 +8797,21 @@
       <c r="K168" t="s">
         <v>291</v>
       </c>
-      <c r="L168" t="s">
-        <v>353</v>
-      </c>
-      <c r="M168" t="s">
-        <v>364</v>
-      </c>
-      <c r="N168" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+      <c r="L168">
+        <v>8.5</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="N168" t="s">
+        <v>293</v>
+      </c>
+      <c r="O168" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8803,17 +8842,21 @@
       <c r="K169" t="s">
         <v>291</v>
       </c>
-      <c r="L169" t="s">
-        <v>354</v>
-      </c>
-      <c r="M169" t="s">
-        <v>364</v>
-      </c>
-      <c r="N169" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+      <c r="L169">
+        <v>7</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="2"/>
+        <v>310.14285714285717</v>
+      </c>
+      <c r="N169" t="s">
+        <v>293</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8844,17 +8887,18 @@
       <c r="K170" t="s">
         <v>291</v>
       </c>
-      <c r="L170" t="s">
-        <v>293</v>
-      </c>
-      <c r="M170" t="s">
-        <v>386</v>
-      </c>
-      <c r="N170" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+      <c r="L170">
+        <v>6.4</v>
+      </c>
+      <c r="M170" s="5">
+        <f t="shared" si="2"/>
+        <v>303.75</v>
+      </c>
+      <c r="O170" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -8882,17 +8926,18 @@
       <c r="K171" t="s">
         <v>291</v>
       </c>
-      <c r="L171" t="s">
-        <v>293</v>
-      </c>
-      <c r="M171" t="s">
-        <v>338</v>
-      </c>
-      <c r="N171" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+      <c r="L171">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M171" s="5">
+        <f t="shared" si="2"/>
+        <v>329.79591836734693</v>
+      </c>
+      <c r="O171" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -8920,17 +8965,18 @@
       <c r="K172" t="s">
         <v>291</v>
       </c>
-      <c r="L172" t="s">
-        <v>293</v>
-      </c>
-      <c r="M172" t="s">
-        <v>371</v>
-      </c>
-      <c r="N172" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+      <c r="L172">
+        <v>12.8</v>
+      </c>
+      <c r="M172" s="5">
+        <f t="shared" si="2"/>
+        <v>330.390625</v>
+      </c>
+      <c r="O172" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -8961,17 +9007,21 @@
       <c r="K173" t="s">
         <v>291</v>
       </c>
-      <c r="L173" t="s">
-        <v>355</v>
-      </c>
-      <c r="M173" t="s">
-        <v>364</v>
-      </c>
-      <c r="N173" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+      <c r="L173">
+        <v>22</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="2"/>
+        <v>367.45454545454544</v>
+      </c>
+      <c r="N173" t="s">
+        <v>293</v>
+      </c>
+      <c r="O173" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -8999,17 +9049,21 @@
       <c r="K174" t="s">
         <v>291</v>
       </c>
-      <c r="L174" t="s">
-        <v>356</v>
-      </c>
-      <c r="M174" t="s">
-        <v>397</v>
-      </c>
-      <c r="N174" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+      <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="2"/>
+        <v>997.5</v>
+      </c>
+      <c r="N174" t="s">
+        <v>297</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -9037,17 +9091,18 @@
       <c r="K175" t="s">
         <v>291</v>
       </c>
-      <c r="L175" t="s">
-        <v>293</v>
-      </c>
-      <c r="M175" t="s">
-        <v>414</v>
-      </c>
-      <c r="N175" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+      <c r="L175">
+        <v>17</v>
+      </c>
+      <c r="M175" s="5">
+        <f t="shared" si="2"/>
+        <v>295.70588235294116</v>
+      </c>
+      <c r="O175" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -9075,17 +9130,21 @@
       <c r="K176" t="s">
         <v>292</v>
       </c>
-      <c r="L176" t="s">
-        <v>339</v>
-      </c>
-      <c r="M176" t="s">
-        <v>425</v>
-      </c>
-      <c r="N176" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
+      <c r="L176">
+        <v>2.9</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="2"/>
+        <v>982.41379310344826</v>
+      </c>
+      <c r="N176" t="s">
+        <v>303</v>
+      </c>
+      <c r="O176" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -9113,17 +9172,18 @@
       <c r="K177" t="s">
         <v>291</v>
       </c>
-      <c r="L177" t="s">
-        <v>293</v>
-      </c>
-      <c r="M177" t="s">
-        <v>372</v>
-      </c>
-      <c r="N177" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
+      <c r="L177">
+        <v>10.5</v>
+      </c>
+      <c r="M177" s="5">
+        <f t="shared" si="2"/>
+        <v>341.33333333333331</v>
+      </c>
+      <c r="O177" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -9151,17 +9211,21 @@
       <c r="K178" t="s">
         <v>291</v>
       </c>
-      <c r="L178" t="s">
-        <v>357</v>
-      </c>
-      <c r="M178" t="s">
-        <v>426</v>
-      </c>
-      <c r="N178" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="2"/>
+        <v>411</v>
+      </c>
+      <c r="N178" t="s">
+        <v>304</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -9189,17 +9253,18 @@
       <c r="K179" t="s">
         <v>291</v>
       </c>
-      <c r="L179" t="s">
-        <v>293</v>
-      </c>
-      <c r="M179" t="s">
-        <v>427</v>
-      </c>
-      <c r="N179" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
+      <c r="L179">
+        <v>4.8</v>
+      </c>
+      <c r="M179" s="5">
+        <f t="shared" si="2"/>
+        <v>374.375</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -9227,17 +9292,18 @@
       <c r="K180" t="s">
         <v>291</v>
       </c>
-      <c r="L180" t="s">
-        <v>293</v>
-      </c>
-      <c r="M180" t="s">
-        <v>428</v>
-      </c>
-      <c r="N180" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+      <c r="L180">
+        <v>5.6</v>
+      </c>
+      <c r="M180" s="5">
+        <f t="shared" si="2"/>
+        <v>334.64285714285717</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -9268,17 +9334,21 @@
       <c r="K181" t="s">
         <v>291</v>
       </c>
-      <c r="L181" t="s">
-        <v>358</v>
-      </c>
-      <c r="M181" t="s">
-        <v>364</v>
-      </c>
-      <c r="N181" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+      <c r="L181">
+        <v>13.4</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="2"/>
+        <v>343.50746268656718</v>
+      </c>
+      <c r="N181" t="s">
+        <v>293</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -9309,17 +9379,21 @@
       <c r="K182" t="s">
         <v>291</v>
       </c>
-      <c r="L182" t="s">
-        <v>359</v>
-      </c>
-      <c r="M182" t="s">
-        <v>366</v>
-      </c>
-      <c r="N182" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+      <c r="L182">
+        <v>9</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="2"/>
+        <v>1950.6666666666667</v>
+      </c>
+      <c r="N182" t="s">
+        <v>294</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -9347,17 +9421,18 @@
       <c r="K183" t="s">
         <v>291</v>
       </c>
-      <c r="L183" t="s">
-        <v>293</v>
-      </c>
-      <c r="M183" t="s">
-        <v>340</v>
-      </c>
-      <c r="N183" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+      <c r="L183">
+        <v>5.8</v>
+      </c>
+      <c r="M183" s="5">
+        <f t="shared" si="2"/>
+        <v>373.9655172413793</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -9385,17 +9460,21 @@
       <c r="K184" t="s">
         <v>291</v>
       </c>
-      <c r="L184" t="s">
-        <v>353</v>
-      </c>
-      <c r="M184" t="s">
-        <v>426</v>
-      </c>
-      <c r="N184" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+      <c r="L184">
+        <v>8.5</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="2"/>
+        <v>335.29411764705884</v>
+      </c>
+      <c r="N184" t="s">
+        <v>304</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -9423,17 +9502,21 @@
       <c r="K185" t="s">
         <v>291</v>
       </c>
-      <c r="L185" t="s">
-        <v>339</v>
-      </c>
-      <c r="M185" t="s">
-        <v>364</v>
-      </c>
-      <c r="N185" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+      <c r="L185">
+        <v>2.9</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="2"/>
+        <v>441.37931034482762</v>
+      </c>
+      <c r="N185" t="s">
+        <v>293</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -9464,17 +9547,21 @@
       <c r="K186" t="s">
         <v>291</v>
       </c>
-      <c r="L186" t="s">
-        <v>360</v>
-      </c>
-      <c r="M186" t="s">
-        <v>364</v>
-      </c>
-      <c r="N186" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="L186">
+        <v>13.5</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="2"/>
+        <v>327.92592592592592</v>
+      </c>
+      <c r="N186" t="s">
+        <v>293</v>
+      </c>
+      <c r="O186" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -9502,17 +9589,21 @@
       <c r="K187" t="s">
         <v>291</v>
       </c>
-      <c r="L187" t="s">
-        <v>361</v>
-      </c>
-      <c r="M187" t="s">
-        <v>364</v>
-      </c>
-      <c r="N187" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="L187">
+        <v>2.4</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="N187" t="s">
+        <v>293</v>
+      </c>
+      <c r="O187" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -9540,17 +9631,18 @@
       <c r="K188" t="s">
         <v>291</v>
       </c>
-      <c r="L188" t="s">
-        <v>293</v>
-      </c>
-      <c r="M188" t="s">
-        <v>429</v>
-      </c>
-      <c r="N188" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="L188">
+        <v>6.6</v>
+      </c>
+      <c r="M188" s="5">
+        <f t="shared" si="2"/>
+        <v>459.39393939393943</v>
+      </c>
+      <c r="O188" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -9578,17 +9670,18 @@
       <c r="K189" t="s">
         <v>291</v>
       </c>
-      <c r="L189" t="s">
-        <v>293</v>
-      </c>
-      <c r="M189" t="s">
-        <v>430</v>
-      </c>
-      <c r="N189" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
+      <c r="L189">
+        <v>12.7</v>
+      </c>
+      <c r="M189" s="5">
+        <f t="shared" si="2"/>
+        <v>332.99212598425197</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -9616,17 +9709,21 @@
       <c r="K190" t="s">
         <v>291</v>
       </c>
-      <c r="L190" t="s">
-        <v>362</v>
-      </c>
-      <c r="M190" t="s">
-        <v>364</v>
-      </c>
-      <c r="N190" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
+      <c r="L190">
+        <v>14.5</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="2"/>
+        <v>344.82758620689657</v>
+      </c>
+      <c r="N190" t="s">
+        <v>293</v>
+      </c>
+      <c r="O190" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -9654,208 +9751,212 @@
       <c r="K191" t="s">
         <v>291</v>
       </c>
-      <c r="L191" t="s">
-        <v>293</v>
-      </c>
-      <c r="M191" t="s">
-        <v>371</v>
-      </c>
-      <c r="N191" s="2" t="s">
-        <v>620</v>
+      <c r="L191">
+        <v>12.8</v>
+      </c>
+      <c r="M191" s="5">
+        <f t="shared" si="2"/>
+        <v>330.390625</v>
+      </c>
+      <c r="O191" s="2" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O191">
+    <filterColumn colId="12"/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N10" r:id="rId9"/>
-    <hyperlink ref="N11" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
-    <hyperlink ref="N13" r:id="rId12"/>
-    <hyperlink ref="N14" r:id="rId13"/>
-    <hyperlink ref="N15" r:id="rId14"/>
-    <hyperlink ref="N16" r:id="rId15"/>
-    <hyperlink ref="N17" r:id="rId16"/>
-    <hyperlink ref="N18" r:id="rId17"/>
-    <hyperlink ref="N19" r:id="rId18"/>
-    <hyperlink ref="N20" r:id="rId19"/>
-    <hyperlink ref="N21" r:id="rId20"/>
-    <hyperlink ref="N22" r:id="rId21"/>
-    <hyperlink ref="N23" r:id="rId22"/>
-    <hyperlink ref="N24" r:id="rId23"/>
-    <hyperlink ref="N25" r:id="rId24"/>
-    <hyperlink ref="N26" r:id="rId25"/>
-    <hyperlink ref="N27" r:id="rId26"/>
-    <hyperlink ref="N28" r:id="rId27"/>
-    <hyperlink ref="N29" r:id="rId28"/>
-    <hyperlink ref="N30" r:id="rId29"/>
-    <hyperlink ref="N31" r:id="rId30"/>
-    <hyperlink ref="N32" r:id="rId31"/>
-    <hyperlink ref="N33" r:id="rId32"/>
-    <hyperlink ref="N34" r:id="rId33"/>
-    <hyperlink ref="N35" r:id="rId34"/>
-    <hyperlink ref="N36" r:id="rId35"/>
-    <hyperlink ref="N37" r:id="rId36"/>
-    <hyperlink ref="N38" r:id="rId37"/>
-    <hyperlink ref="N39" r:id="rId38"/>
-    <hyperlink ref="N40" r:id="rId39"/>
-    <hyperlink ref="N41" r:id="rId40"/>
-    <hyperlink ref="N42" r:id="rId41"/>
-    <hyperlink ref="N43" r:id="rId42"/>
-    <hyperlink ref="N44" r:id="rId43"/>
-    <hyperlink ref="N45" r:id="rId44"/>
-    <hyperlink ref="N46" r:id="rId45"/>
-    <hyperlink ref="N47" r:id="rId46"/>
-    <hyperlink ref="N48" r:id="rId47"/>
-    <hyperlink ref="N49" r:id="rId48"/>
-    <hyperlink ref="N50" r:id="rId49"/>
-    <hyperlink ref="N51" r:id="rId50"/>
-    <hyperlink ref="N52" r:id="rId51"/>
-    <hyperlink ref="N53" r:id="rId52"/>
-    <hyperlink ref="N54" r:id="rId53"/>
-    <hyperlink ref="N55" r:id="rId54"/>
-    <hyperlink ref="N56" r:id="rId55"/>
-    <hyperlink ref="N57" r:id="rId56"/>
-    <hyperlink ref="N58" r:id="rId57"/>
-    <hyperlink ref="N59" r:id="rId58"/>
-    <hyperlink ref="N60" r:id="rId59"/>
-    <hyperlink ref="N61" r:id="rId60"/>
-    <hyperlink ref="N62" r:id="rId61"/>
-    <hyperlink ref="N63" r:id="rId62"/>
-    <hyperlink ref="N64" r:id="rId63"/>
-    <hyperlink ref="N65" r:id="rId64"/>
-    <hyperlink ref="N66" r:id="rId65"/>
-    <hyperlink ref="N67" r:id="rId66"/>
-    <hyperlink ref="N68" r:id="rId67"/>
-    <hyperlink ref="N69" r:id="rId68"/>
-    <hyperlink ref="N70" r:id="rId69"/>
-    <hyperlink ref="N71" r:id="rId70"/>
-    <hyperlink ref="N72" r:id="rId71"/>
-    <hyperlink ref="N73" r:id="rId72"/>
-    <hyperlink ref="N74" r:id="rId73"/>
-    <hyperlink ref="N75" r:id="rId74"/>
-    <hyperlink ref="N76" r:id="rId75"/>
-    <hyperlink ref="N77" r:id="rId76"/>
-    <hyperlink ref="N78" r:id="rId77"/>
-    <hyperlink ref="N79" r:id="rId78"/>
-    <hyperlink ref="N80" r:id="rId79"/>
-    <hyperlink ref="N81" r:id="rId80"/>
-    <hyperlink ref="N82" r:id="rId81"/>
-    <hyperlink ref="N83" r:id="rId82"/>
-    <hyperlink ref="N84" r:id="rId83"/>
-    <hyperlink ref="N85" r:id="rId84"/>
-    <hyperlink ref="N86" r:id="rId85"/>
-    <hyperlink ref="N87" r:id="rId86"/>
-    <hyperlink ref="N88" r:id="rId87"/>
-    <hyperlink ref="N89" r:id="rId88"/>
-    <hyperlink ref="N90" r:id="rId89"/>
-    <hyperlink ref="N91" r:id="rId90"/>
-    <hyperlink ref="N92" r:id="rId91"/>
-    <hyperlink ref="N93" r:id="rId92"/>
-    <hyperlink ref="N94" r:id="rId93"/>
-    <hyperlink ref="N95" r:id="rId94"/>
-    <hyperlink ref="N96" r:id="rId95"/>
-    <hyperlink ref="N97" r:id="rId96"/>
-    <hyperlink ref="N98" r:id="rId97"/>
-    <hyperlink ref="N99" r:id="rId98"/>
-    <hyperlink ref="N100" r:id="rId99"/>
-    <hyperlink ref="N101" r:id="rId100"/>
-    <hyperlink ref="N102" r:id="rId101"/>
-    <hyperlink ref="N103" r:id="rId102"/>
-    <hyperlink ref="N104" r:id="rId103"/>
-    <hyperlink ref="N105" r:id="rId104"/>
-    <hyperlink ref="N106" r:id="rId105"/>
-    <hyperlink ref="N107" r:id="rId106"/>
-    <hyperlink ref="N108" r:id="rId107"/>
-    <hyperlink ref="N109" r:id="rId108"/>
-    <hyperlink ref="N110" r:id="rId109"/>
-    <hyperlink ref="N111" r:id="rId110"/>
-    <hyperlink ref="N112" r:id="rId111"/>
-    <hyperlink ref="N113" r:id="rId112"/>
-    <hyperlink ref="N114" r:id="rId113"/>
-    <hyperlink ref="N115" r:id="rId114"/>
-    <hyperlink ref="N116" r:id="rId115"/>
-    <hyperlink ref="N117" r:id="rId116"/>
-    <hyperlink ref="N118" r:id="rId117"/>
-    <hyperlink ref="N119" r:id="rId118"/>
-    <hyperlink ref="N120" r:id="rId119"/>
-    <hyperlink ref="N121" r:id="rId120"/>
-    <hyperlink ref="N122" r:id="rId121"/>
-    <hyperlink ref="N123" r:id="rId122"/>
-    <hyperlink ref="N124" r:id="rId123"/>
-    <hyperlink ref="N125" r:id="rId124"/>
-    <hyperlink ref="N126" r:id="rId125"/>
-    <hyperlink ref="N127" r:id="rId126"/>
-    <hyperlink ref="N128" r:id="rId127"/>
-    <hyperlink ref="N129" r:id="rId128"/>
-    <hyperlink ref="N130" r:id="rId129"/>
-    <hyperlink ref="N131" r:id="rId130"/>
-    <hyperlink ref="N132" r:id="rId131"/>
-    <hyperlink ref="N133" r:id="rId132"/>
-    <hyperlink ref="N134" r:id="rId133"/>
-    <hyperlink ref="N135" r:id="rId134"/>
-    <hyperlink ref="N136" r:id="rId135"/>
-    <hyperlink ref="N137" r:id="rId136"/>
-    <hyperlink ref="N138" r:id="rId137"/>
-    <hyperlink ref="N139" r:id="rId138"/>
-    <hyperlink ref="N140" r:id="rId139"/>
-    <hyperlink ref="N141" r:id="rId140"/>
-    <hyperlink ref="N142" r:id="rId141"/>
-    <hyperlink ref="N143" r:id="rId142"/>
-    <hyperlink ref="N144" r:id="rId143"/>
-    <hyperlink ref="N145" r:id="rId144"/>
-    <hyperlink ref="N146" r:id="rId145"/>
-    <hyperlink ref="N147" r:id="rId146"/>
-    <hyperlink ref="N148" r:id="rId147"/>
-    <hyperlink ref="N149" r:id="rId148"/>
-    <hyperlink ref="N150" r:id="rId149"/>
-    <hyperlink ref="N151" r:id="rId150"/>
-    <hyperlink ref="N152" r:id="rId151"/>
-    <hyperlink ref="N153" r:id="rId152"/>
-    <hyperlink ref="N154" r:id="rId153"/>
-    <hyperlink ref="N155" r:id="rId154"/>
-    <hyperlink ref="N156" r:id="rId155"/>
-    <hyperlink ref="N157" r:id="rId156"/>
-    <hyperlink ref="N158" r:id="rId157"/>
-    <hyperlink ref="N159" r:id="rId158"/>
-    <hyperlink ref="N160" r:id="rId159"/>
-    <hyperlink ref="N161" r:id="rId160"/>
-    <hyperlink ref="N162" r:id="rId161"/>
-    <hyperlink ref="N163" r:id="rId162"/>
-    <hyperlink ref="N164" r:id="rId163"/>
-    <hyperlink ref="N165" r:id="rId164"/>
-    <hyperlink ref="N166" r:id="rId165"/>
-    <hyperlink ref="N167" r:id="rId166"/>
-    <hyperlink ref="N168" r:id="rId167"/>
-    <hyperlink ref="N169" r:id="rId168"/>
-    <hyperlink ref="N170" r:id="rId169"/>
-    <hyperlink ref="N171" r:id="rId170"/>
-    <hyperlink ref="N172" r:id="rId171"/>
-    <hyperlink ref="N173" r:id="rId172"/>
-    <hyperlink ref="N174" r:id="rId173"/>
-    <hyperlink ref="N175" r:id="rId174"/>
-    <hyperlink ref="N176" r:id="rId175"/>
-    <hyperlink ref="N177" r:id="rId176"/>
-    <hyperlink ref="N178" r:id="rId177"/>
-    <hyperlink ref="N179" r:id="rId178"/>
-    <hyperlink ref="N180" r:id="rId179"/>
-    <hyperlink ref="N181" r:id="rId180"/>
-    <hyperlink ref="N182" r:id="rId181"/>
-    <hyperlink ref="N183" r:id="rId182"/>
-    <hyperlink ref="N184" r:id="rId183"/>
-    <hyperlink ref="N185" r:id="rId184"/>
-    <hyperlink ref="N186" r:id="rId185"/>
-    <hyperlink ref="N187" r:id="rId186"/>
-    <hyperlink ref="N188" r:id="rId187"/>
-    <hyperlink ref="N189" r:id="rId188"/>
-    <hyperlink ref="N190" r:id="rId189"/>
-    <hyperlink ref="N191" r:id="rId190"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O20" r:id="rId19"/>
+    <hyperlink ref="O21" r:id="rId20"/>
+    <hyperlink ref="O22" r:id="rId21"/>
+    <hyperlink ref="O23" r:id="rId22"/>
+    <hyperlink ref="O24" r:id="rId23"/>
+    <hyperlink ref="O25" r:id="rId24"/>
+    <hyperlink ref="O26" r:id="rId25"/>
+    <hyperlink ref="O27" r:id="rId26"/>
+    <hyperlink ref="O28" r:id="rId27"/>
+    <hyperlink ref="O29" r:id="rId28"/>
+    <hyperlink ref="O30" r:id="rId29"/>
+    <hyperlink ref="O31" r:id="rId30"/>
+    <hyperlink ref="O32" r:id="rId31"/>
+    <hyperlink ref="O33" r:id="rId32"/>
+    <hyperlink ref="O34" r:id="rId33"/>
+    <hyperlink ref="O35" r:id="rId34"/>
+    <hyperlink ref="O36" r:id="rId35"/>
+    <hyperlink ref="O37" r:id="rId36"/>
+    <hyperlink ref="O38" r:id="rId37"/>
+    <hyperlink ref="O39" r:id="rId38"/>
+    <hyperlink ref="O40" r:id="rId39"/>
+    <hyperlink ref="O41" r:id="rId40"/>
+    <hyperlink ref="O42" r:id="rId41"/>
+    <hyperlink ref="O43" r:id="rId42"/>
+    <hyperlink ref="O44" r:id="rId43"/>
+    <hyperlink ref="O45" r:id="rId44"/>
+    <hyperlink ref="O46" r:id="rId45"/>
+    <hyperlink ref="O47" r:id="rId46"/>
+    <hyperlink ref="O48" r:id="rId47"/>
+    <hyperlink ref="O49" r:id="rId48"/>
+    <hyperlink ref="O50" r:id="rId49"/>
+    <hyperlink ref="O51" r:id="rId50"/>
+    <hyperlink ref="O52" r:id="rId51"/>
+    <hyperlink ref="O53" r:id="rId52"/>
+    <hyperlink ref="O54" r:id="rId53"/>
+    <hyperlink ref="O55" r:id="rId54"/>
+    <hyperlink ref="O56" r:id="rId55"/>
+    <hyperlink ref="O57" r:id="rId56"/>
+    <hyperlink ref="O58" r:id="rId57"/>
+    <hyperlink ref="O59" r:id="rId58"/>
+    <hyperlink ref="O60" r:id="rId59"/>
+    <hyperlink ref="O61" r:id="rId60"/>
+    <hyperlink ref="O62" r:id="rId61"/>
+    <hyperlink ref="O63" r:id="rId62"/>
+    <hyperlink ref="O64" r:id="rId63"/>
+    <hyperlink ref="O65" r:id="rId64"/>
+    <hyperlink ref="O66" r:id="rId65"/>
+    <hyperlink ref="O67" r:id="rId66"/>
+    <hyperlink ref="O68" r:id="rId67"/>
+    <hyperlink ref="O69" r:id="rId68"/>
+    <hyperlink ref="O70" r:id="rId69"/>
+    <hyperlink ref="O71" r:id="rId70"/>
+    <hyperlink ref="O72" r:id="rId71"/>
+    <hyperlink ref="O73" r:id="rId72"/>
+    <hyperlink ref="O74" r:id="rId73"/>
+    <hyperlink ref="O75" r:id="rId74"/>
+    <hyperlink ref="O76" r:id="rId75"/>
+    <hyperlink ref="O77" r:id="rId76"/>
+    <hyperlink ref="O78" r:id="rId77"/>
+    <hyperlink ref="O79" r:id="rId78"/>
+    <hyperlink ref="O80" r:id="rId79"/>
+    <hyperlink ref="O81" r:id="rId80"/>
+    <hyperlink ref="O82" r:id="rId81"/>
+    <hyperlink ref="O83" r:id="rId82"/>
+    <hyperlink ref="O84" r:id="rId83"/>
+    <hyperlink ref="O85" r:id="rId84"/>
+    <hyperlink ref="O86" r:id="rId85"/>
+    <hyperlink ref="O87" r:id="rId86"/>
+    <hyperlink ref="O88" r:id="rId87"/>
+    <hyperlink ref="O89" r:id="rId88"/>
+    <hyperlink ref="O90" r:id="rId89"/>
+    <hyperlink ref="O91" r:id="rId90"/>
+    <hyperlink ref="O92" r:id="rId91"/>
+    <hyperlink ref="O93" r:id="rId92"/>
+    <hyperlink ref="O94" r:id="rId93"/>
+    <hyperlink ref="O95" r:id="rId94"/>
+    <hyperlink ref="O96" r:id="rId95"/>
+    <hyperlink ref="O97" r:id="rId96"/>
+    <hyperlink ref="O98" r:id="rId97"/>
+    <hyperlink ref="O99" r:id="rId98"/>
+    <hyperlink ref="O100" r:id="rId99"/>
+    <hyperlink ref="O101" r:id="rId100"/>
+    <hyperlink ref="O102" r:id="rId101"/>
+    <hyperlink ref="O103" r:id="rId102"/>
+    <hyperlink ref="O104" r:id="rId103"/>
+    <hyperlink ref="O105" r:id="rId104"/>
+    <hyperlink ref="O106" r:id="rId105"/>
+    <hyperlink ref="O107" r:id="rId106"/>
+    <hyperlink ref="O108" r:id="rId107"/>
+    <hyperlink ref="O109" r:id="rId108"/>
+    <hyperlink ref="O110" r:id="rId109"/>
+    <hyperlink ref="O111" r:id="rId110"/>
+    <hyperlink ref="O112" r:id="rId111"/>
+    <hyperlink ref="O113" r:id="rId112"/>
+    <hyperlink ref="O114" r:id="rId113"/>
+    <hyperlink ref="O115" r:id="rId114"/>
+    <hyperlink ref="O116" r:id="rId115"/>
+    <hyperlink ref="O117" r:id="rId116"/>
+    <hyperlink ref="O118" r:id="rId117"/>
+    <hyperlink ref="O119" r:id="rId118"/>
+    <hyperlink ref="O120" r:id="rId119"/>
+    <hyperlink ref="O121" r:id="rId120"/>
+    <hyperlink ref="O122" r:id="rId121"/>
+    <hyperlink ref="O123" r:id="rId122"/>
+    <hyperlink ref="O124" r:id="rId123"/>
+    <hyperlink ref="O125" r:id="rId124"/>
+    <hyperlink ref="O126" r:id="rId125"/>
+    <hyperlink ref="O127" r:id="rId126"/>
+    <hyperlink ref="O128" r:id="rId127"/>
+    <hyperlink ref="O129" r:id="rId128"/>
+    <hyperlink ref="O130" r:id="rId129"/>
+    <hyperlink ref="O131" r:id="rId130"/>
+    <hyperlink ref="O132" r:id="rId131"/>
+    <hyperlink ref="O133" r:id="rId132"/>
+    <hyperlink ref="O134" r:id="rId133"/>
+    <hyperlink ref="O135" r:id="rId134"/>
+    <hyperlink ref="O136" r:id="rId135"/>
+    <hyperlink ref="O137" r:id="rId136"/>
+    <hyperlink ref="O138" r:id="rId137"/>
+    <hyperlink ref="O139" r:id="rId138"/>
+    <hyperlink ref="O140" r:id="rId139"/>
+    <hyperlink ref="O141" r:id="rId140"/>
+    <hyperlink ref="O142" r:id="rId141"/>
+    <hyperlink ref="O143" r:id="rId142"/>
+    <hyperlink ref="O144" r:id="rId143"/>
+    <hyperlink ref="O145" r:id="rId144"/>
+    <hyperlink ref="O146" r:id="rId145"/>
+    <hyperlink ref="O147" r:id="rId146"/>
+    <hyperlink ref="O148" r:id="rId147"/>
+    <hyperlink ref="O149" r:id="rId148"/>
+    <hyperlink ref="O150" r:id="rId149"/>
+    <hyperlink ref="O151" r:id="rId150"/>
+    <hyperlink ref="O152" r:id="rId151"/>
+    <hyperlink ref="O153" r:id="rId152"/>
+    <hyperlink ref="O154" r:id="rId153"/>
+    <hyperlink ref="O155" r:id="rId154"/>
+    <hyperlink ref="O156" r:id="rId155"/>
+    <hyperlink ref="O157" r:id="rId156"/>
+    <hyperlink ref="O158" r:id="rId157"/>
+    <hyperlink ref="O159" r:id="rId158"/>
+    <hyperlink ref="O160" r:id="rId159"/>
+    <hyperlink ref="O161" r:id="rId160"/>
+    <hyperlink ref="O162" r:id="rId161"/>
+    <hyperlink ref="O163" r:id="rId162"/>
+    <hyperlink ref="O164" r:id="rId163"/>
+    <hyperlink ref="O165" r:id="rId164"/>
+    <hyperlink ref="O166" r:id="rId165"/>
+    <hyperlink ref="O167" r:id="rId166"/>
+    <hyperlink ref="O168" r:id="rId167"/>
+    <hyperlink ref="O169" r:id="rId168"/>
+    <hyperlink ref="O170" r:id="rId169"/>
+    <hyperlink ref="O171" r:id="rId170"/>
+    <hyperlink ref="O172" r:id="rId171"/>
+    <hyperlink ref="O173" r:id="rId172"/>
+    <hyperlink ref="O174" r:id="rId173"/>
+    <hyperlink ref="O175" r:id="rId174"/>
+    <hyperlink ref="O176" r:id="rId175"/>
+    <hyperlink ref="O177" r:id="rId176"/>
+    <hyperlink ref="O178" r:id="rId177"/>
+    <hyperlink ref="O179" r:id="rId178"/>
+    <hyperlink ref="O180" r:id="rId179"/>
+    <hyperlink ref="O181" r:id="rId180"/>
+    <hyperlink ref="O182" r:id="rId181"/>
+    <hyperlink ref="O183" r:id="rId182"/>
+    <hyperlink ref="O184" r:id="rId183"/>
+    <hyperlink ref="O185" r:id="rId184"/>
+    <hyperlink ref="O186" r:id="rId185"/>
+    <hyperlink ref="O187" r:id="rId186"/>
+    <hyperlink ref="O188" r:id="rId187"/>
+    <hyperlink ref="O189" r:id="rId188"/>
+    <hyperlink ref="O190" r:id="rId189"/>
+    <hyperlink ref="O191" r:id="rId190"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
